--- a/medicine/Enfance/La_Cité_des_brumes_oubliées/La_Cité_des_brumes_oubliées.xlsx
+++ b/medicine/Enfance/La_Cité_des_brumes_oubliées/La_Cité_des_brumes_oubliées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Cit%C3%A9_des_brumes_oubli%C3%A9es</t>
+          <t>La_Cité_des_brumes_oubliées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Cité des brumes oubliées (霧のむこうのふしぎな町, Kirino mukono fushigina machi?, litt. « Le Mystérieux Village voilé dans la brume ») est un roman de jeunesse de Sachiko Kashiwaba écrit en 1974 et édité en 1975 par Kōdansha. Premier roman publié par l'écrivaine, il est récompensé par le prix Kōdansha des nouveaux écrivains jeunesse. L’écrivaine y narre le quotidien fantastique que va vivre une Japonaise de dix ans, durant un été.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Cit%C3%A9_des_brumes_oubli%C3%A9es</t>
+          <t>La_Cité_des_brumes_oubliées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lina est envoyée par son père, en vacances, dans un lieu reculé du Japon, dont elle apprend l’existence cet été là. Il s'agit d'un endroit mystérieux entouré de brumes où la magie siège. La jeune fille s’en rend bien vite compte alors qu’elle arrive dans l’auberge d’une vieille mégère à grosse tête : Mme Picotto. Cette dernière la somme d’ailleurs de travailler pour pouvoir être logée et nourrie.
 Un peu désemparée de prime abord, Lina prend sur elle. Si elle doit travailler, elle le fera donc. Cette dernière finit par se faire quelques amis : elle commence par sympathiser avec M. Icchan, un homme tout mince, débordé par son travail : celui d’alimenter de grosses machines en charbon. Puis elle sympathise avec John le cuistot et fin cordon bleu de l’auberge. Seule Mme Kinu reste discrète et dans son coin, s’occupant des lessives.
-Très vite, Mme Picotto lui trouve du travail. Lina s’en va donc jour après jour, découvrir le quotidien de la rue extravagante de ce petit village. Petit à petit, au fil des rencontres, Lina va réussir à se faire une place. La jeune fille, en guise de travail, donne un coup de main aux habitants, les aidant à régler certains soucis personnels au passage[1],[2].
+Très vite, Mme Picotto lui trouve du travail. Lina s’en va donc jour après jour, découvrir le quotidien de la rue extravagante de ce petit village. Petit à petit, au fil des rencontres, Lina va réussir à se faire une place. La jeune fille, en guise de travail, donne un coup de main aux habitants, les aidant à régler certains soucis personnels au passage,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Cit%C3%A9_des_brumes_oubli%C3%A9es</t>
+          <t>La_Cité_des_brumes_oubliées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lina Uesugi : personnage principale du roman originaire de Shizuoka au Japon. Elle est envoyée par son père chez l'aubergiste Mme Picotto. Lina paraissait timide au premier regard. Pourtant, bien vite, elle se montre dégourdie et très sociable, voire déterminée ! Elle est accompagnée d'un parapluie clown magique donné par son père qui lui avait été envoyé par une vieille connaissance il y a longtemps. C'est ce parapluie qui la guide vers la cité des brumes.
 Iccham : employé de l'auberge, il est inventeur.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Cit%C3%A9_des_brumes_oubli%C3%A9es</t>
+          <t>La_Cité_des_brumes_oubliées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,12 @@
           <t>Écriture et édition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sachiko Kashiwaba écrit le roman durant l'été 1974 alors qu'elle était étudiante, sous le titre Lina et la rue folle (気ちがい通りのリナ, Kichigai-dōri no Rina?). Le manuscrit obtient en 1974 le prix des nouveaux écrivains jeunesse de l'éditeur Kōdansha, qui édite le roman l'année suivante sous son titre actuel[3],[4]. 
-Le roman est publié en France en 2021 sous le titre La Cité des brumes oubliées par les éditions Ynnis, dans une traduction de Nesrine Mezouane[5]. Il est sélectionné pour le Grand prix de l'Imaginaire en 2022 dans la catégorie « roman jeunesse étranger »[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sachiko Kashiwaba écrit le roman durant l'été 1974 alors qu'elle était étudiante, sous le titre Lina et la rue folle (気ちがい通りのリナ, Kichigai-dōri no Rina?). Le manuscrit obtient en 1974 le prix des nouveaux écrivains jeunesse de l'éditeur Kōdansha, qui édite le roman l'année suivante sous son titre actuel,. 
+Le roman est publié en France en 2021 sous le titre La Cité des brumes oubliées par les éditions Ynnis, dans une traduction de Nesrine Mezouane. Il est sélectionné pour le Grand prix de l'Imaginaire en 2022 dans la catégorie « roman jeunesse étranger ».
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Cit%C3%A9_des_brumes_oubli%C3%A9es</t>
+          <t>La_Cité_des_brumes_oubliées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,11 @@
           <t>Influence ultérieure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant de réaliser le film d'animation Le Voyage de Chihiro, Hayao Miyazaki avait envisagé d'adapter La Cité des brumes oubliées, mais son scénario initial n'avait pas été bien reçu par ses producteurs. Miyazaki fait donc évoluer son projet pour écrire un scénario original qui ne s'inspire plus que très librement du roman, et qui donnera Le Voyage de Chihiro en 2001[7],[8]. Le film d'animation raconte l'histoire de Chihiro, une fillette de dix ans qui, alors qu'elle se rend en famille vers sa nouvelle maison, entre dans le monde des esprits. Après la transformation de ses parents en porcs par la sorcière Yubaba, Chihiro prend un emploi dans l'établissement de bains de la sorcière pour retrouver ses parents et regagner le monde des humains.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de réaliser le film d'animation Le Voyage de Chihiro, Hayao Miyazaki avait envisagé d'adapter La Cité des brumes oubliées, mais son scénario initial n'avait pas été bien reçu par ses producteurs. Miyazaki fait donc évoluer son projet pour écrire un scénario original qui ne s'inspire plus que très librement du roman, et qui donnera Le Voyage de Chihiro en 2001,. Le film d'animation raconte l'histoire de Chihiro, une fillette de dix ans qui, alors qu'elle se rend en famille vers sa nouvelle maison, entre dans le monde des esprits. Après la transformation de ses parents en porcs par la sorcière Yubaba, Chihiro prend un emploi dans l'établissement de bains de la sorcière pour retrouver ses parents et regagner le monde des humains.
 </t>
         </is>
       </c>
